--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1302.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1302.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.007451737737171</v>
+        <v>1.108930349349976</v>
       </c>
       <c r="B1">
-        <v>2.61309228412523</v>
+        <v>2.241667985916138</v>
       </c>
       <c r="C1">
-        <v>5.682501042573928</v>
+        <v>10.07673645019531</v>
       </c>
       <c r="D1">
-        <v>2.16319733009976</v>
+        <v>1.399994015693665</v>
       </c>
       <c r="E1">
-        <v>1.253737794612485</v>
+        <v>1.28227424621582</v>
       </c>
     </row>
   </sheetData>
